--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_16.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_16.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nanami Ogawa</t>
+          <t>Tomoya Sato</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
